--- a/画面デザイン.xlsx
+++ b/画面デザイン.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190480\Desktop\卒業制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D4E6A5-74D0-4979-89E0-6BCC9406E055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D029B7-74B7-4FF5-B5DD-C0D112844F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C766807-EBB2-4385-AD1F-39C1F4537388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6C766807-EBB2-4385-AD1F-39C1F4537388}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="プロフィール" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -158,9 +158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -170,6 +167,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,12 +183,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,6 +747,564 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>店舗情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDE80C5-5AC8-4E0E-969C-316F11872DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="1790701"/>
+          <a:ext cx="1419225" cy="1190624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>オンライン中の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>友達</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A49EB0-25F3-A050-6ED3-B63E71935A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="1219200"/>
+          <a:ext cx="1419225" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ユーザー自己紹介</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B02D507-70EF-C049-C0F3-6A2303BAD88A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="2085976"/>
+          <a:ext cx="3133725" cy="3390899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>タイムライン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621D8DBA-50B1-8281-8AA4-69D0DF6F3A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="1190625"/>
+          <a:ext cx="3076575" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DC8ADD-A119-4232-7677-E03A88FCCCEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="476250"/>
+          <a:ext cx="4467225" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ヘッダー、アイコン、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB62AA9-FF14-09A0-B8B7-BF0D4032518A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="19050"/>
+          <a:ext cx="6162675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>検索バー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028300D5-A864-4A97-8DF7-AD53641EB102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="2962275"/>
+          <a:ext cx="1685925" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ユーザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0188E080-F71D-EF8B-8B9C-48E77D302153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="466725"/>
+          <a:ext cx="1685925" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>メニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE06D2B2-DDB2-4D6D-93CF-CC02AE325905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="2962275"/>
+          <a:ext cx="1419225" cy="2514599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>広告</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1055,264 +1613,264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEDA146-7B12-46A6-80A2-07AAA877C56D}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="8"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="9"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="8"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="8"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="8"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="8"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="8"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1327,13 +1885,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF68EA-6A91-4890-AC80-2F05EB8E23EA}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J23"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>